--- a/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
+++ b/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamne\Downloads\Eclipse_Program_Folder\Eclipse_Programs_Java\7rMartSuperMarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreen\git\SeleniumProjectIndu\7RMARTSUPERMARKETproject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86AAF7B-2E97-465A-8B0C-07F461075C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D79FF-CF32-482A-8EC2-50C26A444962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,17 @@
     <sheet name="SubCategoryPageTestData" sheetId="5" r:id="rId5"/>
     <sheet name="CategoryPageTestData" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -56,9 +47,6 @@
     <t>XYZ^^^</t>
   </si>
   <si>
-    <t>123#</t>
-  </si>
-  <si>
     <t>Kiwi</t>
   </si>
   <si>
@@ -66,6 +54,24 @@
   </si>
   <si>
     <t>Dairy Products</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>indu</t>
+  </si>
+  <si>
+    <t>aqwe</t>
   </si>
 </sst>
 </file>
@@ -423,9 +429,9 @@
       <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -456,15 +462,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983AA3C-70D8-49D2-8405-15E4A2409BCA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -480,17 +486,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -506,9 +531,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -537,9 +562,9 @@
       <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -568,12 +593,12 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -589,14 +614,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -608,16 +633,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC0D6C-EF03-4056-9210-8950AE195E9C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -633,9 +658,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
+++ b/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreen\git\SeleniumProjectIndu\7RMARTSUPERMARKETproject\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D79FF-CF32-482A-8EC2-50C26A444962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F2BBCD3C-D2F5-4845-9EE9-C32EDDE7A76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="CategoryPageTestData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -53,9 +49,6 @@
     <t>Orange Nagpur</t>
   </si>
   <si>
-    <t>Dairy Products</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -72,6 +65,12 @@
   </si>
   <si>
     <t>aqwe</t>
+  </si>
+  <si>
+    <t>dfdfgdfhfdhf</t>
+  </si>
+  <si>
+    <t>fgdtsfsdgdfhfh</t>
   </si>
 </sst>
 </file>
@@ -464,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983AA3C-70D8-49D2-8405-15E4A2409BCA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -491,15 +490,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -507,15 +506,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -631,10 +630,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC0D6C-EF03-4056-9210-8950AE195E9C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,7 +659,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
+++ b/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F2BBCD3C-D2F5-4845-9EE9-C32EDDE7A76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreen\git\SeleniumProjectIndu\7RMARTSUPERMARKETproject\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8DE02-ABE4-4DA1-9C99-6A1CCB3A30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="CategoryPageTestData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -71,6 +75,15 @@
   </si>
   <si>
     <t>fgdtsfsdgdfhfh</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Delivery Boy</t>
   </si>
 </sst>
 </file>
@@ -461,15 +474,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983AA3C-70D8-49D2-8405-15E4A2409BCA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,44 +493,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC0D6C-EF03-4056-9210-8950AE195E9C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
+++ b/7RMARTSUPERMARKETproject/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreen\git\SeleniumProjectIndu\7RMARTSUPERMARKETproject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8DE02-ABE4-4DA1-9C99-6A1CCB3A30D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB00D3D3-0241-48E0-8C02-33CA25311E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="4" activeTab="4" xr2:uid="{5A98118F-A429-47C7-ABB0-7048FB20898B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -47,12 +47,6 @@
     <t>XYZ^^^</t>
   </si>
   <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>Orange Nagpur</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -84,6 +78,24 @@
   </si>
   <si>
     <t>Delivery Boy</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry</t>
+  </si>
+  <si>
+    <t>News Text</t>
+  </si>
+  <si>
+    <t>Search text</t>
+  </si>
+  <si>
+    <t>dnsakdsakdksad</t>
+  </si>
+  <si>
+    <t>ghghghhj</t>
+  </si>
+  <si>
+    <t>gggjjjhkjkyuy</t>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8983AA3C-70D8-49D2-8405-15E4A2409BCA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -501,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -509,21 +521,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -531,26 +543,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -591,28 +603,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C51B4E6-B51C-432D-AEAA-994339D8EB7D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +650,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A91BD5-6B9E-4730-9101-DE4295BC17AC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,12 +679,17 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +702,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,12 +728,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
